--- a/myth/quiz/xlsx/riddle.xlsx
+++ b/myth/quiz/xlsx/riddle.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\myth\quiz\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77DAC81-4391-4D48-A71F-34673A37FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28755" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="146">
   <si>
     <t>textQue</t>
   </si>
@@ -172,13 +178,295 @@
   </si>
   <si>
     <t>Жар птица</t>
+  </si>
+  <si>
+    <t>pic244</t>
+  </si>
+  <si>
+    <t>no_pic</t>
+  </si>
+  <si>
+    <t>Сова</t>
+  </si>
+  <si>
+    <t>Паук</t>
+  </si>
+  <si>
+    <t>Кошмар</t>
+  </si>
+  <si>
+    <t>Ламия</t>
+  </si>
+  <si>
+    <t>Сходка</t>
+  </si>
+  <si>
+    <t>Чёрная месса</t>
+  </si>
+  <si>
+    <t>Ведьмины игрища</t>
+  </si>
+  <si>
+    <t>Мистический бал</t>
+  </si>
+  <si>
+    <t>Вакханалия</t>
+  </si>
+  <si>
+    <t>Горбунья</t>
+  </si>
+  <si>
+    <t>Бал Бесов</t>
+  </si>
+  <si>
+    <t>Шишимора</t>
+  </si>
+  <si>
+    <t>Лешая</t>
+  </si>
+  <si>
+    <t>Чернокнижница</t>
+  </si>
+  <si>
+    <t>Ликантроп</t>
+  </si>
+  <si>
+    <t>Чупакабра</t>
+  </si>
+  <si>
+    <t>Суккуб</t>
+  </si>
+  <si>
+    <t>Некромант</t>
+  </si>
+  <si>
+    <t>pic15</t>
+  </si>
+  <si>
+    <t>Барабашка</t>
+  </si>
+  <si>
+    <t>Гремлин</t>
+  </si>
+  <si>
+    <t>Тролль</t>
+  </si>
+  <si>
+    <t>Барабашка озорной</t>
+  </si>
+  <si>
+    <t>Дворовой</t>
+  </si>
+  <si>
+    <t>Черномор</t>
+  </si>
+  <si>
+    <t>Морж морской</t>
+  </si>
+  <si>
+    <t>Дождевой</t>
+  </si>
+  <si>
+    <t>Рак речной</t>
+  </si>
+  <si>
+    <t>Чертик злой</t>
+  </si>
+  <si>
+    <t>Ворожея</t>
+  </si>
+  <si>
+    <t>Магистр</t>
+  </si>
+  <si>
+    <t>Полуночница</t>
+  </si>
+  <si>
+    <t>Вурдалак</t>
+  </si>
+  <si>
+    <t>Привидение</t>
+  </si>
+  <si>
+    <t>Гадалка</t>
+  </si>
+  <si>
+    <t>Белый кот</t>
+  </si>
+  <si>
+    <t>Голлум</t>
+  </si>
+  <si>
+    <t>Хоббит</t>
+  </si>
+  <si>
+    <t>pic32</t>
+  </si>
+  <si>
+    <t>pic13</t>
+  </si>
+  <si>
+    <t>pic19</t>
+  </si>
+  <si>
+    <t>Феникс</t>
+  </si>
+  <si>
+    <t>Лесовик</t>
+  </si>
+  <si>
+    <t>Моховик</t>
+  </si>
+  <si>
+    <t>Костёр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Радуга </t>
+  </si>
+  <si>
+    <t>Павлин</t>
+  </si>
+  <si>
+    <t>Утренняя звезда</t>
+  </si>
+  <si>
+    <t>Петух</t>
+  </si>
+  <si>
+    <t>Лучик солнца</t>
+  </si>
+  <si>
+    <t>Цербер</t>
+  </si>
+  <si>
+    <t>Ктулху</t>
+  </si>
+  <si>
+    <t>Медуза Горгона</t>
+  </si>
+  <si>
+    <t>Левиафан</t>
+  </si>
+  <si>
+    <t>Тугарин Змей</t>
+  </si>
+  <si>
+    <t>Чудо-Юдо</t>
+  </si>
+  <si>
+    <t>Золотая рыбка</t>
+  </si>
+  <si>
+    <t>pic245</t>
+  </si>
+  <si>
+    <t>pic35</t>
+  </si>
+  <si>
+    <t>pic45</t>
+  </si>
+  <si>
+    <t>pic49</t>
+  </si>
+  <si>
+    <t>pic50</t>
+  </si>
+  <si>
+    <t>pic63</t>
+  </si>
+  <si>
+    <t>pic69</t>
+  </si>
+  <si>
+    <t>pic72</t>
+  </si>
+  <si>
+    <t>pic125</t>
+  </si>
+  <si>
+    <t>pic196</t>
+  </si>
+  <si>
+    <t>pic98</t>
+  </si>
+  <si>
+    <t>Кадавр</t>
+  </si>
+  <si>
+    <t>Нежить</t>
+  </si>
+  <si>
+    <t>Лич</t>
+  </si>
+  <si>
+    <t>Драугр</t>
+  </si>
+  <si>
+    <t>Фея</t>
+  </si>
+  <si>
+    <t>Старик Хоттабыч</t>
+  </si>
+  <si>
+    <t>Мрачный рыцарь</t>
+  </si>
+  <si>
+    <t>Кобольд</t>
+  </si>
+  <si>
+    <t>Брауни</t>
+  </si>
+  <si>
+    <t>Пикси</t>
+  </si>
+  <si>
+    <t>Эльф</t>
+  </si>
+  <si>
+    <t>Скряга</t>
+  </si>
+  <si>
+    <t>Метаморф</t>
+  </si>
+  <si>
+    <t>Мантикора</t>
+  </si>
+  <si>
+    <t>Бестиарий</t>
+  </si>
+  <si>
+    <t>Морок</t>
+  </si>
+  <si>
+    <t>Тень</t>
+  </si>
+  <si>
+    <t>Полтергейст</t>
+  </si>
+  <si>
+    <t>Мара</t>
+  </si>
+  <si>
+    <t>Гуль</t>
+  </si>
+  <si>
+    <t>Жнец</t>
+  </si>
+  <si>
+    <t>Шайтанчик</t>
+  </si>
+  <si>
+    <t>Фавны</t>
+  </si>
+  <si>
+    <t>Барашки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,13 +484,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D1822"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,15 +519,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -272,7 +596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,9 +628,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,6 +680,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -513,20 +873,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AS24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="150.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,215 +913,945 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
+      <c r="F24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS24">
+    <sortCondition ref="E1:E24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myth/quiz/xlsx/riddle.xlsx
+++ b/myth/quiz/xlsx/riddle.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\myth\quiz\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77DAC81-4391-4D48-A71F-34673A37FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="154">
   <si>
     <t>textQue</t>
   </si>
@@ -66,9 +60,6 @@
     <t>Вампир</t>
   </si>
   <si>
-    <t>Он уродлив и огромен_Руки как оглобли_Ум его как сажа темен_Это страшный …</t>
-  </si>
-  <si>
     <t>Гоблин</t>
   </si>
   <si>
@@ -460,13 +451,40 @@
   </si>
   <si>
     <t>Барашки</t>
+  </si>
+  <si>
+    <t>pic284</t>
+  </si>
+  <si>
+    <t>pic22</t>
+  </si>
+  <si>
+    <t>pic265</t>
+  </si>
+  <si>
+    <t>Огр</t>
+  </si>
+  <si>
+    <t>Он уродлив и огромен_На расправу скор_Ум его как сажа темен_Это страшный …</t>
+  </si>
+  <si>
+    <t>Дракон</t>
+  </si>
+  <si>
+    <t>pic297</t>
+  </si>
+  <si>
+    <t>t_mummy.webp</t>
+  </si>
+  <si>
+    <t>t_shabash.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,18 +511,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -530,10 +542,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,7 +608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,27 +640,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,24 +674,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -873,14 +849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="150.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
@@ -894,7 +870,7 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,487 +910,397 @@
       <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>97</v>
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>10</v>
@@ -1422,163 +1308,163 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>13</v>
@@ -1587,245 +1473,245 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="K22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="M22" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="K24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS24">
+  <sortState ref="A2:AS24">
     <sortCondition ref="E1:E24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1834,24 +1720,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
